--- a/biology/Médecine/Paraplégie_spastique_familiale_ascendante_à_début_précoce/Paraplégie_spastique_familiale_ascendante_à_début_précoce.xlsx
+++ b/biology/Médecine/Paraplégie_spastique_familiale_ascendante_à_début_précoce/Paraplégie_spastique_familiale_ascendante_à_début_précoce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parapl%C3%A9gie_spastique_familiale_ascendante_%C3%A0_d%C3%A9but_pr%C3%A9coce</t>
+          <t>Paraplégie_spastique_familiale_ascendante_à_début_précoce</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La paraplégie spastique familiale ascendante à début précoce est une maladie dégénérative proche de la sclérose latérale amyotrophique. La mutation du gène ALS2 est la cause de cette pathologie. Les signes majeures de diagnostic sont :
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parapl%C3%A9gie_spastique_familiale_ascendante_%C3%A0_d%C3%A9but_pr%C3%A9coce</t>
+          <t>Paraplégie_spastique_familiale_ascendante_à_début_précoce</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,12 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:607225 [1]
-(en) Enrico S Bertini, Eleonore Eymard-Pierre, Odile Boespflug-Tanguy, Koji Yamanaka, Don W Cleveland, ALS2-Related Disorders In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [2]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:607225 
+(en) Enrico S Bertini, Eleonore Eymard-Pierre, Odile Boespflug-Tanguy, Koji Yamanaka, Don W Cleveland, ALS2-Related Disorders In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 </t>
         </is>
       </c>
     </row>
